--- a/static/file/students_example.xlsx
+++ b/static/file/students_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaochengxin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FC840A-75AC-F84D-BC61-1A7150AD4602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7712E96-298C-3E4B-AA05-3CFB95CA3F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="880" windowWidth="30820" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>chinese_name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>user_name</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t>zhong.yi@student.zy.cdut.edu.cn</t>
-  </si>
-  <si>
-    <t>bkrq2</t>
-  </si>
-  <si>
-    <t>bkrq</t>
   </si>
 </sst>
 </file>
@@ -443,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -459,7 +450,7 @@
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,47 +466,38 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>202018020317</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>202018020317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>202018020303</v>
       </c>
     </row>
